--- a/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,44 +656,44 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,03</t>
@@ -701,12 +701,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,1</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,09</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,07</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,12</t>
+          <t>0,02; 0,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,06</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,13</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,07</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,09</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,06</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -864,49 +864,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,03; 0,05</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,07</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,04</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0,03; 0,05</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,29 +936,29 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,03</t>
@@ -966,7 +966,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,37 +1014,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,01; 0,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,01; 0,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,03; 0,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>0,02</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1149,42 +1149,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,02; 0,05</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,01; 0,03</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,03</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,02</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,03; 0,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,06</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,174 +1324,34 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>0,03; 0,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,03</t>
         </is>
       </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,04</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 3 meses</t>
+          <t>Número medio de accidentes en los últimos 3 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,08</t>
+          <t>0,02; 0,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,07</t>
+          <t>0,01; 0,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,03; 0,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,04</t>
+          <t>0,03; 0,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,02</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>0,01; 0,03</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>
